--- a/Updated_data.xlsx
+++ b/Updated_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sy\Documents\Lifelong-MAPF-Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D85FDE9-89C2-4764-990B-DE05E1FD5E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD61B8D-59F2-4C1E-AA24-BF9131C5C95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,10 +232,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -523,8 +523,8 @@
   <dimension ref="A1:AA97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -539,114 +539,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="19.149999999999999" thickBot="1">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-    </row>
-    <row r="2" spans="1:27" s="4" customFormat="1" ht="14.65" thickTop="1" thickBot="1">
-      <c r="D2" s="4" t="s">
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+    </row>
+    <row r="2" spans="1:27" s="3" customFormat="1" ht="14.65" thickTop="1" thickBot="1">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3748,103 +3748,103 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="6" customFormat="1" ht="14.25" thickBot="1">
-      <c r="C43" s="6" t="s">
+    <row r="43" spans="1:27" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <f>AVERAGE(D3:D42)</f>
         <v>1.3968749999999996</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <f t="shared" ref="E43:G43" si="0">AVERAGE(E3:E42)</f>
         <v>689.1</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <f t="shared" si="0"/>
         <v>503.47500000000002</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <f t="shared" ref="H43" si="1">AVERAGE(H3:H42)</f>
         <v>8.3679000000000023</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="5">
         <f t="shared" ref="I43" si="2">AVERAGE(I3:I42)</f>
         <v>12.8</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <f t="shared" ref="J43" si="3">AVERAGE(J3:J42)</f>
         <v>4.8</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <f t="shared" ref="K43" si="4">AVERAGE(K3:K42)</f>
         <v>1000</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="5">
         <f t="shared" ref="L43" si="5">AVERAGE(L3:L42)</f>
         <v>7.4547499999999989</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="5">
         <f t="shared" ref="M43" si="6">AVERAGE(M3:M42)</f>
         <v>612.22500000000002</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="5">
         <f t="shared" ref="N43" si="7">AVERAGE(N3:N42)</f>
         <v>439</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="5">
         <f t="shared" ref="O43" si="8">AVERAGE(O3:O42)</f>
         <v>1000</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43" s="5">
         <f t="shared" ref="P43" si="9">AVERAGE(P3:P42)</f>
         <v>14.734425000000002</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="Q43" s="5">
         <f t="shared" ref="Q43" si="10">AVERAGE(Q3:Q42)</f>
         <v>668.07500000000005</v>
       </c>
-      <c r="R43" s="6">
+      <c r="R43" s="5">
         <f t="shared" ref="R43" si="11">AVERAGE(R3:R42)</f>
         <v>374.75</v>
       </c>
-      <c r="S43" s="6">
+      <c r="S43" s="5">
         <f t="shared" ref="S43" si="12">AVERAGE(S3:S42)</f>
         <v>1000</v>
       </c>
-      <c r="T43" s="6">
+      <c r="T43" s="5">
         <f t="shared" ref="T43" si="13">AVERAGE(T3:T42)</f>
         <v>10.3062</v>
       </c>
-      <c r="U43" s="6">
+      <c r="U43" s="5">
         <f t="shared" ref="U43" si="14">AVERAGE(U3:U42)</f>
         <v>594.02499999999998</v>
       </c>
-      <c r="V43" s="6">
+      <c r="V43" s="5">
         <f t="shared" ref="V43" si="15">AVERAGE(V3:V42)</f>
         <v>412.17500000000001</v>
       </c>
-      <c r="W43" s="6">
+      <c r="W43" s="5">
         <f t="shared" ref="W43" si="16">AVERAGE(W3:W42)</f>
         <v>1000</v>
       </c>
-      <c r="X43" s="6">
+      <c r="X43" s="5">
         <f t="shared" ref="X43" si="17">AVERAGE(X3:X42)</f>
         <v>3.7929249999999994</v>
       </c>
-      <c r="Y43" s="6">
+      <c r="Y43" s="5">
         <f t="shared" ref="Y43" si="18">AVERAGE(Y3:Y42)</f>
         <v>634.72500000000002</v>
       </c>
-      <c r="Z43" s="6">
+      <c r="Z43" s="5">
         <f t="shared" ref="Z43" si="19">AVERAGE(Z3:Z42)</f>
         <v>432.875</v>
       </c>
-      <c r="AA43" s="6">
+      <c r="AA43" s="5">
         <f t="shared" ref="AA43" si="20">AVERAGE(AA3:AA42)</f>
         <v>1000</v>
       </c>
@@ -3859,77 +3859,77 @@
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:27" s="4" customFormat="1" ht="14.25" thickBot="1">
-      <c r="D45" s="4" t="s">
+    <row r="45" spans="1:27" s="3" customFormat="1" ht="14.25" thickBot="1">
+      <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="M45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="N45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="O45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="P45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R45" s="4" t="s">
+      <c r="R45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S45" s="4" t="s">
+      <c r="S45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T45" s="4" t="s">
+      <c r="T45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U45" s="4" t="s">
+      <c r="U45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V45" s="4" t="s">
+      <c r="V45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W45" s="4" t="s">
+      <c r="W45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X45" s="4" t="s">
+      <c r="X45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Y45" s="4" t="s">
+      <c r="Y45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z45" s="4" t="s">
+      <c r="Z45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA45" s="4" t="s">
+      <c r="AA45" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7660,103 +7660,103 @@
         <v>800</v>
       </c>
     </row>
-    <row r="96" spans="3:27" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="C96" s="5" t="s">
+    <row r="96" spans="3:27" s="4" customFormat="1" ht="14.25" thickBot="1">
+      <c r="C96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <f t="shared" ref="D96:K96" si="21">AVERAGE(D46:D95)</f>
         <v>0.27894000000000008</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="4">
         <f t="shared" si="21"/>
         <v>159.52000000000001</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="4">
         <f t="shared" si="21"/>
         <v>399.96</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="4">
         <f t="shared" si="21"/>
         <v>800</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96" s="4">
         <f t="shared" si="21"/>
         <v>0.73848000000000025</v>
       </c>
-      <c r="I96" s="5">
+      <c r="I96" s="4">
         <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
-      <c r="J96" s="5">
+      <c r="J96" s="4">
         <f t="shared" si="21"/>
         <v>1.6</v>
       </c>
-      <c r="K96" s="5">
+      <c r="K96" s="4">
         <f t="shared" si="21"/>
         <v>800</v>
       </c>
-      <c r="L96" s="5">
+      <c r="L96" s="4">
         <f>AVERAGE(L46:L95)</f>
         <v>0.73068000000000022</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="4">
         <f t="shared" ref="M96:AA96" si="22">AVERAGE(M46:M95)</f>
         <v>1.42</v>
       </c>
-      <c r="N96" s="5">
+      <c r="N96" s="4">
         <f t="shared" si="22"/>
         <v>5.68</v>
       </c>
-      <c r="O96" s="5">
+      <c r="O96" s="4">
         <f t="shared" si="22"/>
         <v>800</v>
       </c>
-      <c r="P96" s="5">
+      <c r="P96" s="4">
         <f t="shared" si="22"/>
         <v>0.70883999999999991</v>
       </c>
-      <c r="Q96" s="5">
+      <c r="Q96" s="4">
         <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="R96" s="5">
+      <c r="R96" s="4">
         <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
-      <c r="S96" s="5">
+      <c r="S96" s="4">
         <f t="shared" si="22"/>
         <v>800</v>
       </c>
-      <c r="T96" s="5">
+      <c r="T96" s="4">
         <f t="shared" si="22"/>
         <v>0.80340000000000023</v>
       </c>
-      <c r="U96" s="5">
+      <c r="U96" s="4">
         <f t="shared" si="22"/>
         <v>0.36</v>
       </c>
-      <c r="V96" s="5">
+      <c r="V96" s="4">
         <f t="shared" si="22"/>
         <v>2.3199999999999998</v>
       </c>
-      <c r="W96" s="5">
+      <c r="W96" s="4">
         <f t="shared" si="22"/>
         <v>800</v>
       </c>
-      <c r="X96" s="5">
+      <c r="X96" s="4">
         <f t="shared" si="22"/>
         <v>0.66559999999999997</v>
       </c>
-      <c r="Y96" s="5">
+      <c r="Y96" s="4">
         <f t="shared" si="22"/>
         <v>3.1</v>
       </c>
-      <c r="Z96" s="5">
+      <c r="Z96" s="4">
         <f t="shared" si="22"/>
         <v>8.06</v>
       </c>
-      <c r="AA96" s="5">
+      <c r="AA96" s="4">
         <f t="shared" si="22"/>
         <v>800</v>
       </c>
